--- a/public/restriction_tmpl.xlsx
+++ b/public/restriction_tmpl.xlsx
@@ -1,15 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FF9E9835-D681-47ED-B635-8E3CFADC7DA4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{26C29526-888A-4DA5-88F7-05B0A5563DA4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A:$M</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -68,7 +71,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,13 +80,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="186"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="186"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="186"/>
     </font>
   </fonts>
   <fills count="2">
@@ -158,23 +174,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -456,31 +477,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="34.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="29.42578125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
@@ -494,68 +518,565 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="3"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="1:13" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="44" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>